--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T06:24:07+00:00</t>
+    <t>2024-07-11T13:07:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Anzahl der Wiederaufnahmen</t>
+    <t>MOPED Extension für die Anzahl der Wiederaufnahmen</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T13:07:17+00:00</t>
+    <t>2024-07-15T09:40:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T09:40:45+00:00</t>
+    <t>2024-07-16T10:33:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-16T10:33:51+00:00</t>
+    <t>2024-07-19T05:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T05:43:00+00:00</t>
+    <t>2024-07-31T11:45:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-31T11:45:17+00:00</t>
+    <t>2024-08-01T08:50:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T08:50:18+00:00</t>
+    <t>2024-08-01T13:41:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T13:41:58+00:00</t>
+    <t>2024-08-06T11:00:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T11:00:40+00:00</t>
+    <t>2024-08-06T12:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T12:10:21+00:00</t>
+    <t>2024-08-07T21:51:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T21:51:51+00:00</t>
+    <t>2024-09-03T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:35:21+00:00</t>
+    <t>2024-09-03T06:46:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-03T06:46:02+00:00</t>
+    <t>2024-09-05T05:58:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T05:58:31+00:00</t>
+    <t>2024-09-10T13:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T13:26:38+00:00</t>
+    <t>2024-09-11T18:39:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T18:39:22+00:00</t>
+    <t>2024-09-12T09:13:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T09:13:24+00:00</t>
+    <t>2024-09-12T16:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
+++ b/r5-ELGA-MOPED-main/StructureDefinition-moped-ext-fallnummer.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-12T16:58:21+00:00</t>
+    <t>2024-09-17T12:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
